--- a/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1586">
   <si>
     <t>anchor score</t>
   </si>
@@ -640,838 +640,838 @@
     <t>problems</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>thousands</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>homemade</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>trust</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>thousands</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>asked</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>almost</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>told</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>follow</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>homemade</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>trust</t>
   </si>
   <si>
     <t>offer</t>
@@ -5140,7 +5140,7 @@
         <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5319,7 +5319,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5419,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5469,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5669,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5719,7 +5719,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K17">
         <v>0.9</v>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K18">
         <v>0.8983050847457628</v>
@@ -6019,7 +6019,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K19">
         <v>0.875</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K20">
         <v>0.875</v>
@@ -6119,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K21">
         <v>0.875</v>
@@ -6269,7 +6269,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K24">
         <v>0.8571428571428571</v>
@@ -6419,7 +6419,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K27">
         <v>0.8461538461538461</v>
@@ -6469,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K28">
         <v>0.8421052631578947</v>
@@ -6519,7 +6519,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K29">
         <v>0.8333333333333334</v>
@@ -6619,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K31">
         <v>0.8181818181818182</v>
@@ -6719,7 +6719,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K33">
         <v>0.8125</v>
@@ -6769,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K34">
         <v>0.8110236220472441</v>
@@ -6869,7 +6869,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K36">
         <v>0.8</v>
@@ -6919,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K37">
         <v>0.8</v>
@@ -6969,7 +6969,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K38">
         <v>0.8</v>
@@ -7069,7 +7069,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K40">
         <v>0.7777777777777778</v>
@@ -7169,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K42">
         <v>0.7692307692307693</v>
@@ -7219,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K43">
         <v>0.7643312101910829</v>
@@ -7269,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K44">
         <v>0.75</v>
@@ -7369,7 +7369,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K46">
         <v>0.75</v>
@@ -7669,7 +7669,7 @@
         <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K52">
         <v>0.7333333333333333</v>
@@ -7719,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K53">
         <v>0.7272727272727273</v>
@@ -7769,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K54">
         <v>0.7272727272727273</v>
@@ -7819,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K55">
         <v>0.7272727272727273</v>
@@ -7869,7 +7869,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K56">
         <v>0.7142857142857143</v>
@@ -7919,7 +7919,7 @@
         <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K57">
         <v>0.7142857142857143</v>
@@ -7969,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K58">
         <v>0.7142857142857143</v>
@@ -8019,7 +8019,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K59">
         <v>0.7083333333333334</v>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K60">
         <v>0.7017543859649122</v>
@@ -8169,7 +8169,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K62">
         <v>0.7</v>
@@ -8219,7 +8219,7 @@
         <v>19</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K63">
         <v>0.7</v>
@@ -8269,7 +8269,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K64">
         <v>0.6923076923076923</v>
@@ -8319,7 +8319,7 @@
         <v>58</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K65">
         <v>0.6714285714285714</v>
@@ -8419,7 +8419,7 @@
         <v>19</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
@@ -8519,7 +8519,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
@@ -8569,7 +8569,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
@@ -8669,7 +8669,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
@@ -8719,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K73">
         <v>0.6666666666666666</v>
@@ -8769,7 +8769,7 @@
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K74">
         <v>0.6666666666666666</v>
@@ -8819,7 +8819,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K75">
         <v>0.6666666666666666</v>
@@ -8869,7 +8869,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K76">
         <v>0.6666666666666666</v>
@@ -8919,7 +8919,7 @@
         <v>25</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K77">
         <v>0.6666666666666666</v>
@@ -9019,28 +9019,28 @@
         <v>21</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>208</v>
+        <v>459</v>
       </c>
       <c r="K79">
-        <v>0.6551724137931034</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L79">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -9069,16 +9069,16 @@
         <v>21</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K80">
         <v>0.6428571428571429</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -9119,28 +9119,28 @@
         <v>9</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="K81">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -9169,28 +9169,28 @@
         <v>9</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="K82">
-        <v>0.6363636363636364</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L82">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="M82">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="N82">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -9219,7 +9219,7 @@
         <v>9</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K83">
         <v>0.6296296296296297</v>
@@ -9269,7 +9269,7 @@
         <v>9</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K84">
         <v>0.625</v>
@@ -9319,7 +9319,7 @@
         <v>9</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K85">
         <v>0.625</v>
@@ -9369,7 +9369,7 @@
         <v>10</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K86">
         <v>0.625</v>
@@ -9469,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K88">
         <v>0.6153846153846154</v>
@@ -9519,7 +9519,7 @@
         <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K89">
         <v>0.6153846153846154</v>
@@ -9669,7 +9669,7 @@
         <v>5</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K92">
         <v>0.6086956521739131</v>
@@ -9769,7 +9769,7 @@
         <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K94">
         <v>0.6078431372549019</v>
@@ -9819,7 +9819,7 @@
         <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K95">
         <v>0.6031746031746031</v>
@@ -9919,7 +9919,7 @@
         <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K97">
         <v>0.6</v>
@@ -9969,7 +9969,7 @@
         <v>5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K98">
         <v>0.5957446808510638</v>
@@ -10069,7 +10069,7 @@
         <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K100">
         <v>0.5833333333333334</v>
@@ -10119,7 +10119,7 @@
         <v>5</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K101">
         <v>0.5833333333333334</v>
@@ -10169,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K102">
         <v>0.5714285714285714</v>
@@ -10219,7 +10219,7 @@
         <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K103">
         <v>0.5714285714285714</v>
@@ -10269,7 +10269,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K104">
         <v>0.5714285714285714</v>
@@ -10319,7 +10319,7 @@
         <v>16</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K105">
         <v>0.5714285714285714</v>
@@ -10369,7 +10369,7 @@
         <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K106">
         <v>0.5714285714285714</v>
@@ -10419,7 +10419,7 @@
         <v>29</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K107">
         <v>0.5714285714285714</v>
@@ -10469,7 +10469,7 @@
         <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K108">
         <v>0.5714285714285714</v>
@@ -10569,7 +10569,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K110">
         <v>0.5625</v>
@@ -10619,7 +10619,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K111">
         <v>0.5555555555555556</v>
@@ -10669,28 +10669,28 @@
         <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="K112">
-        <v>0.5457317073170732</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L112">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="M112">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="N112">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O112">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -10719,7 +10719,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>98</v>
+        <v>482</v>
       </c>
       <c r="K113">
         <v>0.5454545454545454</v>
@@ -10728,16 +10728,16 @@
         <v>6</v>
       </c>
       <c r="M113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -10872,13 +10872,13 @@
         <v>485</v>
       </c>
       <c r="K116">
-        <v>0.5454545454545454</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -10919,7 +10919,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K117">
         <v>0.5227272727272727</v>
@@ -12319,7 +12319,7 @@
         <v>8</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K145">
         <v>0.4814814814814815</v>
@@ -12419,7 +12419,7 @@
         <v>8</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K147">
         <v>0.4750656167979003</v>
@@ -12469,7 +12469,7 @@
         <v>8</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K148">
         <v>0.4703832752613241</v>
@@ -12519,7 +12519,7 @@
         <v>8</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K149">
         <v>0.4666666666666667</v>
@@ -12569,7 +12569,7 @@
         <v>8</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K150">
         <v>0.4642857142857143</v>
@@ -13069,7 +13069,7 @@
         <v>17</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K160">
         <v>0.44</v>
@@ -13169,7 +13169,7 @@
         <v>9</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K162">
         <v>0.4358974358974359</v>
@@ -14169,7 +14169,7 @@
         <v>10</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K182">
         <v>0.4146341463414634</v>
@@ -14369,7 +14369,7 @@
         <v>10</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K186">
         <v>0.4047619047619048</v>
@@ -14419,7 +14419,7 @@
         <v>11</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K187">
         <v>0.4</v>
@@ -15198,25 +15198,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.08045977011494253</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C203">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>547</v>
@@ -15248,25 +15248,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.07894736842105263</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D204">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>548</v>
@@ -15298,13 +15298,13 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.07792207792207792</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -15316,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>549</v>
@@ -15351,10 +15351,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>550</v>
@@ -15401,10 +15401,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>106</v>
@@ -15454,16 +15454,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>12</v>
@@ -15504,13 +15504,13 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -15604,13 +15604,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -15654,13 +15654,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -15704,13 +15704,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -15754,13 +15754,13 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
@@ -15804,16 +15804,16 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>12</v>
@@ -15848,13 +15848,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>558</v>
@@ -15904,16 +15904,16 @@
         <v>3</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>37</v>
@@ -15948,25 +15948,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.075</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="E218">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F218">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>560</v>
@@ -15998,25 +15998,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.07453416149068323</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C219">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="E219">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F219">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>561</v>
@@ -16054,13 +16054,13 @@
         <v>2</v>
       </c>
       <c r="D220">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -16104,22 +16104,22 @@
         <v>2</v>
       </c>
       <c r="D221">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>25</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K221">
         <v>0.3571428571428572</v>
@@ -16148,25 +16148,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>563</v>
@@ -16198,13 +16198,13 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>564</v>
@@ -16251,10 +16251,10 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>565</v>
@@ -16304,22 +16304,22 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>13</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K225">
         <v>0.3478260869565217</v>
@@ -16398,25 +16398,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>567</v>
@@ -16448,25 +16448,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>568</v>
@@ -16501,10 +16501,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>569</v>
@@ -16554,13 +16554,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
@@ -16651,22 +16651,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>572</v>
@@ -16751,22 +16751,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F234">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>574</v>
@@ -16804,16 +16804,16 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
         <v>14</v>
@@ -16848,25 +16848,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>575</v>
@@ -16898,25 +16898,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>576</v>
@@ -16948,13 +16948,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>577</v>
@@ -17004,16 +17004,16 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>15</v>
@@ -17104,13 +17104,13 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
@@ -17154,16 +17154,16 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
         <v>15</v>
@@ -17204,13 +17204,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -17251,22 +17251,22 @@
         <v>0.0625</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>582</v>
@@ -17298,25 +17298,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>583</v>
@@ -17348,25 +17348,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
         <v>2</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>584</v>
@@ -17404,16 +17404,16 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
         <v>16</v>
@@ -17454,16 +17454,16 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
         <v>16</v>
@@ -17504,13 +17504,13 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F249">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
@@ -17554,16 +17554,16 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>16</v>
@@ -17604,13 +17604,13 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E251">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F251">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
@@ -17654,13 +17654,13 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
@@ -17698,25 +17698,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E253">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F253">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>42</v>
@@ -17748,13 +17748,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E254">
         <v>0.67</v>
@@ -17766,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>591</v>
@@ -17804,13 +17804,13 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="F255">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
@@ -17851,22 +17851,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>77</v>
@@ -17904,16 +17904,16 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>17</v>
@@ -17948,25 +17948,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.05555555555555555</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>594</v>
@@ -17998,13 +17998,13 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>595</v>
@@ -18048,25 +18048,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.05333333333333334</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F260">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>596</v>
@@ -18101,22 +18101,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>597</v>
@@ -18154,16 +18154,16 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
         <v>18</v>
@@ -18204,16 +18204,16 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>18</v>
@@ -18248,25 +18248,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>599</v>
@@ -18298,25 +18298,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>600</v>
@@ -18354,13 +18354,13 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F266">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
@@ -18401,25 +18401,25 @@
         <v>0.05</v>
       </c>
       <c r="C267">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K267">
         <v>0.3170731707317073</v>
@@ -18448,28 +18448,28 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F268">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K268">
         <v>0.3166666666666667</v>
@@ -18498,25 +18498,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>130</v>
@@ -18554,13 +18554,13 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F270">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
@@ -18569,7 +18569,7 @@
         <v>20</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K270">
         <v>0.3157894736842105</v>
@@ -18598,25 +18598,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E271">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F271">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>602</v>
@@ -18648,25 +18648,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E272">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F272">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>603</v>
@@ -18704,16 +18704,16 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273">
         <v>21</v>
@@ -18748,25 +18748,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E274">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F274">
-        <v>0.09999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>605</v>
@@ -18798,25 +18798,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>169</v>
@@ -18848,25 +18848,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E276">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F276">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>606</v>
@@ -18904,13 +18904,13 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E277">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F277">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
@@ -18954,16 +18954,16 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F278">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278">
         <v>22</v>
@@ -18998,28 +18998,28 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E279">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F279">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K279">
         <v>0.3</v>
@@ -19048,25 +19048,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>609</v>
@@ -19101,22 +19101,22 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E281">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F281">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>610</v>
@@ -19204,13 +19204,13 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F283">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
@@ -19254,13 +19254,13 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E284">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F284">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
@@ -19304,13 +19304,13 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E285">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F285">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
@@ -19348,25 +19348,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="E286">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F286">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>615</v>
@@ -19398,28 +19398,28 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E287">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F287">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K287">
         <v>0.2941176470588235</v>
@@ -19448,25 +19448,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="E288">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F288">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>616</v>
@@ -19498,25 +19498,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E289">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F289">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H289">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>617</v>
@@ -19554,13 +19554,13 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E290">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F290">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
@@ -19598,25 +19598,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>619</v>
@@ -19648,25 +19648,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E292">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F292">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>97</v>
@@ -19698,25 +19698,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="F293">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>185</v>
@@ -19748,25 +19748,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E294">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F294">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>108</v>
@@ -19804,13 +19804,13 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E295">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F295">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
@@ -19848,25 +19848,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E296">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F296">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>621</v>
@@ -19898,25 +19898,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E297">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F297">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>622</v>
@@ -19948,25 +19948,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F298">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>623</v>
@@ -19998,25 +19998,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E299">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F299">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>624</v>
@@ -20048,25 +20048,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.03333333333333333</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E300">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F300">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>625</v>
@@ -20098,25 +20098,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>626</v>
@@ -20148,25 +20148,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.03260869565217391</v>
+        <v>0.03125</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E302">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F302">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>627</v>
@@ -20198,25 +20198,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.03125</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C303">
         <v>2</v>
       </c>
       <c r="D303">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F303">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>628</v>
@@ -20248,25 +20248,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E304">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F304">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>629</v>
@@ -20298,25 +20298,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E305">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F305">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>630</v>
@@ -20348,25 +20348,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E306">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F306">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>631</v>
@@ -20404,13 +20404,13 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E307">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F307">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
@@ -20451,22 +20451,22 @@
         <v>0.02941176470588235</v>
       </c>
       <c r="C308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E308">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F308">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>633</v>
@@ -20498,25 +20498,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E309">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F309">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>634</v>
@@ -20548,7 +20548,7 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>635</v>
@@ -20598,25 +20598,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E311">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F311">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>636</v>
@@ -20648,25 +20648,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F312">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H312">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>187</v>
@@ -20698,25 +20698,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E313">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F313">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>188</v>
@@ -20754,13 +20754,13 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E314">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F314">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
@@ -20804,13 +20804,13 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E315">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F315">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
@@ -20848,25 +20848,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.02702702702702703</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D316">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E316">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H316">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>639</v>
@@ -20898,25 +20898,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E317">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F317">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>640</v>
@@ -20948,25 +20948,25 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.02684563758389262</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D318">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F318">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>641</v>
@@ -20998,25 +20998,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E319">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F319">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H319">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>642</v>
@@ -21048,25 +21048,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>643</v>
@@ -21154,16 +21154,16 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322">
         <v>38</v>
@@ -21198,25 +21198,25 @@
         <v>328</v>
       </c>
       <c r="B323">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F323">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>646</v>
@@ -21248,25 +21248,25 @@
         <v>329</v>
       </c>
       <c r="B324">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E324">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F324">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>647</v>
@@ -21298,28 +21298,28 @@
         <v>330</v>
       </c>
       <c r="B325">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E325">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F325">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K325">
         <v>0.2816901408450704</v>
@@ -21348,25 +21348,25 @@
         <v>331</v>
       </c>
       <c r="B326">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E326">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F326">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G326" t="b">
         <v>1</v>
       </c>
       <c r="H326">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>648</v>
@@ -21398,25 +21398,25 @@
         <v>332</v>
       </c>
       <c r="B327">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E327">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F327">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>649</v>
@@ -21448,28 +21448,28 @@
         <v>333</v>
       </c>
       <c r="B328">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E328">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F328">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K328">
         <v>0.2777777777777778</v>
@@ -21501,22 +21501,22 @@
         <v>0.02325581395348837</v>
       </c>
       <c r="C329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D329">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E329">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F329">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>650</v>
@@ -21554,13 +21554,13 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E330">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F330">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
@@ -21598,25 +21598,25 @@
         <v>336</v>
       </c>
       <c r="B331">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D331">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E331">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F331">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>652</v>
@@ -21648,25 +21648,25 @@
         <v>337</v>
       </c>
       <c r="B332">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E332">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F332">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
       </c>
       <c r="H332">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>653</v>
@@ -21698,7 +21698,7 @@
         <v>338</v>
       </c>
       <c r="B333">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -21716,7 +21716,7 @@
         <v>1</v>
       </c>
       <c r="H333">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>654</v>
@@ -21748,25 +21748,25 @@
         <v>339</v>
       </c>
       <c r="B334">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
       <c r="D334">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E334">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F334">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G334" t="b">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>655</v>
@@ -21798,25 +21798,25 @@
         <v>340</v>
       </c>
       <c r="B335">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E335">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F335">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G335" t="b">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>656</v>
@@ -21848,25 +21848,25 @@
         <v>341</v>
       </c>
       <c r="B336">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
       <c r="D336">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E336">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F336">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G336" t="b">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J336" s="1" t="s">
         <v>157</v>
@@ -21898,25 +21898,25 @@
         <v>342</v>
       </c>
       <c r="B337">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D337">
         <v>14</v>
       </c>
       <c r="E337">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="F337">
-        <v>0.06999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="G337" t="b">
         <v>1</v>
       </c>
       <c r="H337">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="J337" s="1" t="s">
         <v>110</v>
@@ -21948,25 +21948,25 @@
         <v>343</v>
       </c>
       <c r="B338">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C338">
         <v>1</v>
       </c>
       <c r="D338">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E338">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F338">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G338" t="b">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>657</v>
@@ -21998,25 +21998,25 @@
         <v>344</v>
       </c>
       <c r="B339">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E339">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="F339">
-        <v>0.21</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G339" t="b">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="J339" s="1" t="s">
         <v>153</v>
@@ -22048,25 +22048,25 @@
         <v>345</v>
       </c>
       <c r="B340">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C340">
         <v>1</v>
       </c>
       <c r="D340">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E340">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F340">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G340" t="b">
         <v>1</v>
       </c>
       <c r="H340">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J340" s="1" t="s">
         <v>658</v>
@@ -22098,25 +22098,25 @@
         <v>346</v>
       </c>
       <c r="B341">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E341">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F341">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G341" t="b">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J341" s="1" t="s">
         <v>154</v>
@@ -22148,25 +22148,25 @@
         <v>347</v>
       </c>
       <c r="B342">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C342">
         <v>1</v>
       </c>
       <c r="D342">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E342">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F342">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G342" t="b">
         <v>1</v>
       </c>
       <c r="H342">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J342" s="1" t="s">
         <v>659</v>
@@ -22198,25 +22198,25 @@
         <v>348</v>
       </c>
       <c r="B343">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C343">
         <v>1</v>
       </c>
       <c r="D343">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E343">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F343">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G343" t="b">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J343" s="1" t="s">
         <v>660</v>
@@ -22248,25 +22248,25 @@
         <v>349</v>
       </c>
       <c r="B344">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
       <c r="D344">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E344">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F344">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H344">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J344" s="1" t="s">
         <v>661</v>
@@ -22298,25 +22298,25 @@
         <v>350</v>
       </c>
       <c r="B345">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
       <c r="D345">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E345">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F345">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G345" t="b">
         <v>1</v>
       </c>
       <c r="H345">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>662</v>
@@ -22398,25 +22398,25 @@
         <v>352</v>
       </c>
       <c r="B347">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D347">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E347">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F347">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G347" t="b">
         <v>1</v>
       </c>
       <c r="H347">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="J347" s="1" t="s">
         <v>197</v>
@@ -22448,25 +22448,25 @@
         <v>353</v>
       </c>
       <c r="B348">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C348">
         <v>1</v>
       </c>
       <c r="D348">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F348">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H348">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J348" s="1" t="s">
         <v>664</v>
@@ -22498,25 +22498,25 @@
         <v>354</v>
       </c>
       <c r="B349">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C349">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D349">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E349">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F349">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G349" t="b">
         <v>1</v>
       </c>
       <c r="H349">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="J349" s="1" t="s">
         <v>665</v>
@@ -22548,28 +22548,28 @@
         <v>355</v>
       </c>
       <c r="B350">
-        <v>0.01612903225806452</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
       <c r="D350">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E350">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F350">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G350" t="b">
         <v>1</v>
       </c>
       <c r="H350">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K350">
         <v>0.2608695652173913</v>
@@ -22598,25 +22598,25 @@
         <v>356</v>
       </c>
       <c r="B351">
-        <v>0.01612903225806452</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E351">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F351">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G351" t="b">
         <v>1</v>
       </c>
       <c r="H351">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J351" s="1" t="s">
         <v>666</v>
@@ -22648,25 +22648,25 @@
         <v>357</v>
       </c>
       <c r="B352">
-        <v>0.01470588235294118</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="D352">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E352">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F352">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G352" t="b">
         <v>1</v>
       </c>
       <c r="H352">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>667</v>
@@ -22698,25 +22698,25 @@
         <v>358</v>
       </c>
       <c r="B353">
-        <v>0.01428571428571429</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
       <c r="D353">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E353">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F353">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G353" t="b">
         <v>1</v>
       </c>
       <c r="H353">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J353" s="1" t="s">
         <v>668</v>
@@ -22748,28 +22748,28 @@
         <v>359</v>
       </c>
       <c r="B354">
-        <v>0.01408450704225352</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C354">
         <v>1</v>
       </c>
       <c r="D354">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E354">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F354">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G354" t="b">
         <v>1</v>
       </c>
       <c r="H354">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K354">
         <v>0.2535211267605634</v>
@@ -22798,25 +22798,25 @@
         <v>360</v>
       </c>
       <c r="B355">
-        <v>0.01388888888888889</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C355">
         <v>1</v>
       </c>
       <c r="D355">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E355">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F355">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G355" t="b">
         <v>1</v>
       </c>
       <c r="H355">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J355" s="1" t="s">
         <v>669</v>
@@ -22848,25 +22848,25 @@
         <v>361</v>
       </c>
       <c r="B356">
-        <v>0.01351351351351351</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C356">
         <v>1</v>
       </c>
       <c r="D356">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E356">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F356">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G356" t="b">
         <v>1</v>
       </c>
       <c r="H356">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J356" s="1" t="s">
         <v>670</v>
@@ -22898,25 +22898,25 @@
         <v>362</v>
       </c>
       <c r="B357">
-        <v>0.0131578947368421</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D357">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E357">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F357">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G357" t="b">
         <v>1</v>
       </c>
       <c r="H357">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="J357" s="1" t="s">
         <v>671</v>
@@ -22948,25 +22948,25 @@
         <v>363</v>
       </c>
       <c r="B358">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C358">
         <v>1</v>
       </c>
       <c r="D358">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E358">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F358">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G358" t="b">
         <v>1</v>
       </c>
       <c r="H358">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J358" s="1" t="s">
         <v>672</v>
@@ -22998,25 +22998,25 @@
         <v>364</v>
       </c>
       <c r="B359">
-        <v>0.01290322580645161</v>
+        <v>0.0125</v>
       </c>
       <c r="C359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D359">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E359">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F359">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="J359" s="1" t="s">
         <v>673</v>
@@ -23048,25 +23048,25 @@
         <v>365</v>
       </c>
       <c r="B360">
-        <v>0.01282051282051282</v>
+        <v>0.0125</v>
       </c>
       <c r="C360">
         <v>1</v>
       </c>
       <c r="D360">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E360">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F360">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G360" t="b">
         <v>1</v>
       </c>
       <c r="H360">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J360" s="1" t="s">
         <v>674</v>
@@ -23104,16 +23104,16 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F361">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361">
         <v>79</v>
@@ -23148,25 +23148,25 @@
         <v>367</v>
       </c>
       <c r="B362">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E362">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F362">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="J362" s="1" t="s">
         <v>676</v>
@@ -23198,25 +23198,25 @@
         <v>368</v>
       </c>
       <c r="B363">
-        <v>0.0125</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E363">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F363">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G363" t="b">
         <v>1</v>
       </c>
       <c r="H363">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="J363" s="1" t="s">
         <v>677</v>
@@ -23248,25 +23248,25 @@
         <v>369</v>
       </c>
       <c r="B364">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F364">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="J364" s="1" t="s">
         <v>678</v>
@@ -23298,25 +23298,25 @@
         <v>370</v>
       </c>
       <c r="B365">
-        <v>0.01197604790419162</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E365">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F365">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G365" t="b">
         <v>1</v>
       </c>
       <c r="H365">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J365" s="1" t="s">
         <v>679</v>
@@ -23348,28 +23348,28 @@
         <v>371</v>
       </c>
       <c r="B366">
-        <v>0.01111111111111111</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E366">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F366">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G366" t="b">
         <v>1</v>
       </c>
       <c r="H366">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K366">
         <v>0.25</v>
@@ -23398,25 +23398,25 @@
         <v>372</v>
       </c>
       <c r="B367">
-        <v>0.01098901098901099</v>
+        <v>0.01045296167247387</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D367">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E367">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F367">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G367" t="b">
         <v>1</v>
       </c>
       <c r="H367">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="J367" s="1" t="s">
         <v>680</v>
@@ -23448,13 +23448,13 @@
         <v>373</v>
       </c>
       <c r="B368">
-        <v>0.01075268817204301</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D368">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E368">
         <v>0.9399999999999999</v>
@@ -23466,7 +23466,7 @@
         <v>1</v>
       </c>
       <c r="H368">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="J368" s="1" t="s">
         <v>681</v>
@@ -23498,25 +23498,25 @@
         <v>374</v>
       </c>
       <c r="B369">
-        <v>0.01045296167247387</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D369">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E369">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F369">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G369" t="b">
         <v>1</v>
       </c>
       <c r="H369">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="J369" s="1" t="s">
         <v>682</v>
@@ -23548,25 +23548,25 @@
         <v>375</v>
       </c>
       <c r="B370">
-        <v>0.01041666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D370">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E370">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F370">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G370" t="b">
         <v>1</v>
       </c>
       <c r="H370">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="J370" s="1" t="s">
         <v>683</v>
@@ -23598,25 +23598,25 @@
         <v>376</v>
       </c>
       <c r="B371">
-        <v>0.01030927835051546</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D371">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E371">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F371">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G371" t="b">
         <v>1</v>
       </c>
       <c r="H371">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="J371" s="1" t="s">
         <v>684</v>
@@ -23648,25 +23648,25 @@
         <v>377</v>
       </c>
       <c r="B372">
-        <v>0.01</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D372">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E372">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F372">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G372" t="b">
         <v>1</v>
       </c>
       <c r="H372">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="J372" s="1" t="s">
         <v>685</v>
@@ -23698,25 +23698,25 @@
         <v>378</v>
       </c>
       <c r="B373">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D373">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="E373">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F373">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G373" t="b">
         <v>1</v>
       </c>
       <c r="H373">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="J373" s="1" t="s">
         <v>686</v>
@@ -23748,28 +23748,28 @@
         <v>379</v>
       </c>
       <c r="B374">
-        <v>0.009615384615384616</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C374">
         <v>1</v>
       </c>
       <c r="D374">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E374">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F374">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G374" t="b">
         <v>1</v>
       </c>
       <c r="H374">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K374">
         <v>0.25</v>
@@ -23798,25 +23798,25 @@
         <v>380</v>
       </c>
       <c r="B375">
-        <v>0.009615384615384616</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C375">
         <v>1</v>
       </c>
       <c r="D375">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E375">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F375">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G375" t="b">
         <v>1</v>
       </c>
       <c r="H375">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J375" s="1" t="s">
         <v>687</v>
@@ -23848,25 +23848,25 @@
         <v>381</v>
       </c>
       <c r="B376">
-        <v>0.009174311926605505</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C376">
         <v>1</v>
       </c>
       <c r="D376">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E376">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F376">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G376" t="b">
         <v>1</v>
       </c>
       <c r="H376">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J376" s="1" t="s">
         <v>688</v>
@@ -23898,25 +23898,25 @@
         <v>382</v>
       </c>
       <c r="B377">
-        <v>0.009174311926605505</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C377">
         <v>1</v>
       </c>
       <c r="D377">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E377">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F377">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G377" t="b">
         <v>1</v>
       </c>
       <c r="H377">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J377" s="1" t="s">
         <v>689</v>
@@ -23948,13 +23948,13 @@
         <v>383</v>
       </c>
       <c r="B378">
-        <v>0.008928571428571428</v>
+        <v>0.008665511265164644</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D378">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E378">
         <v>0.9399999999999999</v>
@@ -23966,7 +23966,7 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <v>111</v>
+        <v>572</v>
       </c>
       <c r="J378" s="1" t="s">
         <v>690</v>
@@ -23998,13 +23998,13 @@
         <v>384</v>
       </c>
       <c r="B379">
-        <v>0.008771929824561403</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C379">
         <v>1</v>
       </c>
       <c r="D379">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E379">
         <v>0.95</v>
@@ -24016,7 +24016,7 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J379" s="1" t="s">
         <v>691</v>
@@ -24048,25 +24048,25 @@
         <v>385</v>
       </c>
       <c r="B380">
-        <v>0.008665511265164644</v>
+        <v>0.008450704225352112</v>
       </c>
       <c r="C380">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D380">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E380">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F380">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G380" t="b">
         <v>1</v>
       </c>
       <c r="H380">
-        <v>572</v>
+        <v>352</v>
       </c>
       <c r="J380" s="1" t="s">
         <v>692</v>
@@ -24098,25 +24098,25 @@
         <v>386</v>
       </c>
       <c r="B381">
-        <v>0.008620689655172414</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C381">
         <v>1</v>
       </c>
       <c r="D381">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E381">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F381">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G381" t="b">
         <v>1</v>
       </c>
       <c r="H381">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J381" s="1" t="s">
         <v>693</v>
@@ -24148,25 +24148,25 @@
         <v>387</v>
       </c>
       <c r="B382">
-        <v>0.008450704225352112</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D382">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E382">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F382">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G382" t="b">
         <v>1</v>
       </c>
       <c r="H382">
-        <v>352</v>
+        <v>121</v>
       </c>
       <c r="J382" s="1" t="s">
         <v>694</v>
@@ -24198,25 +24198,25 @@
         <v>388</v>
       </c>
       <c r="B383">
-        <v>0.008403361344537815</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
       <c r="D383">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E383">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F383">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G383" t="b">
         <v>1</v>
       </c>
       <c r="H383">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>695</v>
@@ -24248,25 +24248,25 @@
         <v>389</v>
       </c>
       <c r="B384">
-        <v>0.00819672131147541</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C384">
         <v>1</v>
       </c>
       <c r="D384">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E384">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F384">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G384" t="b">
         <v>1</v>
       </c>
       <c r="H384">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J384" s="1" t="s">
         <v>696</v>
@@ -24298,25 +24298,25 @@
         <v>390</v>
       </c>
       <c r="B385">
-        <v>0.008130081300813009</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C385">
         <v>1</v>
       </c>
       <c r="D385">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E385">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F385">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G385" t="b">
         <v>1</v>
       </c>
       <c r="H385">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="J385" s="1" t="s">
         <v>697</v>
@@ -24348,25 +24348,25 @@
         <v>391</v>
       </c>
       <c r="B386">
-        <v>0.008064516129032258</v>
+        <v>0.006881948120698782</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D386">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="E386">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F386">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G386" t="b">
         <v>1</v>
       </c>
       <c r="H386">
-        <v>123</v>
+        <v>1876</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>698</v>
@@ -24398,25 +24398,25 @@
         <v>392</v>
       </c>
       <c r="B387">
-        <v>0.007042253521126761</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C387">
         <v>1</v>
       </c>
       <c r="D387">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E387">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F387">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G387" t="b">
         <v>1</v>
       </c>
       <c r="H387">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J387" s="1" t="s">
         <v>699</v>
@@ -24448,25 +24448,25 @@
         <v>393</v>
       </c>
       <c r="B388">
-        <v>0.006881948120698782</v>
+        <v>0.006376195536663124</v>
       </c>
       <c r="C388">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D388">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="E388">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="F388">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G388" t="b">
         <v>1</v>
       </c>
       <c r="H388">
-        <v>1876</v>
+        <v>935</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>700</v>
@@ -24498,25 +24498,25 @@
         <v>394</v>
       </c>
       <c r="B389">
-        <v>0.006451612903225806</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D389">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E389">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F389">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G389" t="b">
         <v>1</v>
       </c>
       <c r="H389">
-        <v>154</v>
+        <v>780</v>
       </c>
       <c r="J389" s="1" t="s">
         <v>701</v>
@@ -24548,25 +24548,25 @@
         <v>395</v>
       </c>
       <c r="B390">
-        <v>0.006376195536663124</v>
+        <v>0.006153846153846154</v>
       </c>
       <c r="C390">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D390">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E390">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="F390">
-        <v>0.18</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G390" t="b">
         <v>1</v>
       </c>
       <c r="H390">
-        <v>935</v>
+        <v>323</v>
       </c>
       <c r="J390" s="1" t="s">
         <v>702</v>
@@ -24598,28 +24598,28 @@
         <v>396</v>
       </c>
       <c r="B391">
-        <v>0.006369426751592357</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C391">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D391">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E391">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F391">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G391" t="b">
         <v>1</v>
       </c>
       <c r="H391">
-        <v>780</v>
+        <v>186</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K391">
         <v>0.2407407407407407</v>
@@ -24648,28 +24648,28 @@
         <v>397</v>
       </c>
       <c r="B392">
-        <v>0.006153846153846154</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D392">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="E392">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F392">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G392" t="b">
         <v>1</v>
       </c>
       <c r="H392">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="J392" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K392">
         <v>0.2380952380952381</v>
@@ -24698,7 +24698,7 @@
         <v>398</v>
       </c>
       <c r="B393">
-        <v>0.0053475935828877</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -24716,10 +24716,10 @@
         <v>1</v>
       </c>
       <c r="H393">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="J393" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K393">
         <v>0.2365591397849462</v>
@@ -24748,25 +24748,25 @@
         <v>399</v>
       </c>
       <c r="B394">
-        <v>0.005263157894736842</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E394">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H394">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="J394" s="1" t="s">
         <v>703</v>
@@ -24798,25 +24798,25 @@
         <v>400</v>
       </c>
       <c r="B395">
-        <v>0.004273504273504274</v>
+        <v>0.003821656050955414</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D395">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E395">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F395">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G395" t="b">
         <v>1</v>
       </c>
       <c r="H395">
-        <v>233</v>
+        <v>782</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>704</v>
@@ -24848,25 +24848,25 @@
         <v>401</v>
       </c>
       <c r="B396">
-        <v>0.003968253968253968</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="C396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F396">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H396">
-        <v>251</v>
+        <v>807</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>705</v>
@@ -24898,13 +24898,13 @@
         <v>402</v>
       </c>
       <c r="B397">
-        <v>0.003821656050955414</v>
+        <v>0.003629764065335753</v>
       </c>
       <c r="C397">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D397">
-        <v>112</v>
+        <v>362</v>
       </c>
       <c r="E397">
         <v>0.97</v>
@@ -24916,7 +24916,7 @@
         <v>1</v>
       </c>
       <c r="H397">
-        <v>782</v>
+        <v>2745</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>706</v>
@@ -24948,25 +24948,25 @@
         <v>403</v>
       </c>
       <c r="B398">
-        <v>0.003703703703703704</v>
+        <v>0.003412969283276451</v>
       </c>
       <c r="C398">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D398">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E398">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F398">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G398" t="b">
         <v>1</v>
       </c>
       <c r="H398">
-        <v>807</v>
+        <v>292</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>707</v>
@@ -24998,25 +24998,25 @@
         <v>404</v>
       </c>
       <c r="B399">
-        <v>0.003629764065335753</v>
+        <v>0.003343363423604146</v>
       </c>
       <c r="C399">
         <v>10</v>
       </c>
       <c r="D399">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="E399">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F399">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G399" t="b">
         <v>1</v>
       </c>
       <c r="H399">
-        <v>2745</v>
+        <v>2981</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>7</v>
@@ -25048,25 +25048,25 @@
         <v>405</v>
       </c>
       <c r="B400">
-        <v>0.003412969283276451</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E400">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F400">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G400" t="b">
         <v>1</v>
       </c>
       <c r="H400">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>186</v>
@@ -25098,25 +25098,25 @@
         <v>406</v>
       </c>
       <c r="B401">
-        <v>0.003343363423604146</v>
+        <v>0.002785515320334262</v>
       </c>
       <c r="C401">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D401">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="E401">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F401">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G401" t="b">
         <v>1</v>
       </c>
       <c r="H401">
-        <v>2981</v>
+        <v>1074</v>
       </c>
       <c r="J401" s="1" t="s">
         <v>708</v>
@@ -25148,25 +25148,25 @@
         <v>407</v>
       </c>
       <c r="B402">
-        <v>0.002865329512893983</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
       <c r="D402">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E402">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F402">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G402" t="b">
         <v>1</v>
       </c>
       <c r="H402">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="J402" s="1" t="s">
         <v>709</v>
@@ -25198,28 +25198,28 @@
         <v>408</v>
       </c>
       <c r="B403">
-        <v>0.002785515320334262</v>
+        <v>0.001956947162426614</v>
       </c>
       <c r="C403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D403">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E403">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F403">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G403" t="b">
         <v>1</v>
       </c>
       <c r="H403">
-        <v>1074</v>
+        <v>510</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K403">
         <v>0.2307692307692308</v>
@@ -25248,25 +25248,25 @@
         <v>409</v>
       </c>
       <c r="B404">
-        <v>0.002288329519450801</v>
+        <v>0.001904761904761905</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
       <c r="D404">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E404">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F404">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G404" t="b">
         <v>1</v>
       </c>
       <c r="H404">
-        <v>436</v>
+        <v>524</v>
       </c>
       <c r="J404" s="1" t="s">
         <v>710</v>
@@ -25294,30 +25294,6 @@
       </c>
     </row>
     <row r="405" spans="1:17">
-      <c r="A405" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B405">
-        <v>0.001956947162426614</v>
-      </c>
-      <c r="C405">
-        <v>1</v>
-      </c>
-      <c r="D405">
-        <v>57</v>
-      </c>
-      <c r="E405">
-        <v>0.98</v>
-      </c>
-      <c r="F405">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G405" t="b">
-        <v>1</v>
-      </c>
-      <c r="H405">
-        <v>510</v>
-      </c>
       <c r="J405" s="1" t="s">
         <v>711</v>
       </c>
@@ -25344,30 +25320,6 @@
       </c>
     </row>
     <row r="406" spans="1:17">
-      <c r="A406" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B406">
-        <v>0.001904761904761905</v>
-      </c>
-      <c r="C406">
-        <v>1</v>
-      </c>
-      <c r="D406">
-        <v>21</v>
-      </c>
-      <c r="E406">
-        <v>0.95</v>
-      </c>
-      <c r="F406">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G406" t="b">
-        <v>1</v>
-      </c>
-      <c r="H406">
-        <v>524</v>
-      </c>
       <c r="J406" s="1" t="s">
         <v>712</v>
       </c>
@@ -25577,7 +25529,7 @@
     </row>
     <row r="414" spans="1:17">
       <c r="J414" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K414">
         <v>0.2235576923076923</v>
@@ -26071,7 +26023,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K433">
         <v>0.2222222222222222</v>
@@ -26305,7 +26257,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K442">
         <v>0.2203389830508475</v>
@@ -26357,7 +26309,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K444">
         <v>0.217948717948718</v>
@@ -26461,7 +26413,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K448">
         <v>0.2173913043478261</v>
@@ -26487,7 +26439,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K449">
         <v>0.2173913043478261</v>
@@ -26773,7 +26725,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K460">
         <v>0.2127659574468085</v>
@@ -26799,7 +26751,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K461">
         <v>0.2121212121212121</v>
@@ -26929,7 +26881,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K466">
         <v>0.2083333333333333</v>
@@ -27787,7 +27739,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K499">
         <v>0.2</v>
@@ -27891,7 +27843,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K503">
         <v>0.1935483870967742</v>
@@ -27969,7 +27921,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K506">
         <v>0.1923076923076923</v>
@@ -28229,7 +28181,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K516">
         <v>0.1842105263157895</v>
@@ -28593,7 +28545,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K530">
         <v>0.1785714285714286</v>
@@ -28619,7 +28571,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K531">
         <v>0.1785714285714286</v>
@@ -28801,7 +28753,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K538">
         <v>0.1764705882352941</v>
@@ -29113,7 +29065,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K550">
         <v>0.1692307692307692</v>
@@ -29139,7 +29091,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K551">
         <v>0.1692307692307692</v>
@@ -29737,7 +29689,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K574">
         <v>0.1666666666666667</v>
@@ -31323,7 +31275,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K635">
         <v>0.1643835616438356</v>
@@ -31609,7 +31561,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K646">
         <v>0.1578947368421053</v>
@@ -31661,7 +31613,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K648">
         <v>0.1574468085106383</v>
@@ -31687,7 +31639,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K649">
         <v>0.1544117647058824</v>
@@ -32129,7 +32081,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K666">
         <v>0.1515151515151515</v>
@@ -32181,7 +32133,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K668">
         <v>0.1503759398496241</v>
@@ -32311,7 +32263,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K673">
         <v>0.1477272727272727</v>
@@ -32337,7 +32289,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K674">
         <v>0.1476997578692494</v>
@@ -32363,7 +32315,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K675">
         <v>0.1475409836065574</v>
@@ -32415,7 +32367,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K677">
         <v>0.146551724137931</v>
@@ -32441,7 +32393,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K678">
         <v>0.1441441441441441</v>
@@ -32805,7 +32757,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K692">
         <v>0.1428571428571428</v>
@@ -32857,7 +32809,7 @@
     </row>
     <row r="694" spans="10:17">
       <c r="J694" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K694">
         <v>0.1428571428571428</v>
@@ -32883,7 +32835,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K695">
         <v>0.1428571428571428</v>
@@ -33611,7 +33563,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K723">
         <v>0.1428571428571428</v>
@@ -34443,7 +34395,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K755">
         <v>0.1424418604651163</v>
@@ -34599,7 +34551,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K761">
         <v>0.1363636363636364</v>
@@ -34625,7 +34577,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K762">
         <v>0.136150234741784</v>
@@ -35015,7 +34967,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K777">
         <v>0.1328125</v>
@@ -35223,7 +35175,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K785">
         <v>0.1272727272727273</v>
@@ -36107,7 +36059,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K819">
         <v>0.125</v>
@@ -36887,7 +36839,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K849">
         <v>0.1234567901234568</v>
@@ -36939,7 +36891,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K851">
         <v>0.1230769230769231</v>
@@ -36965,7 +36917,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K852">
         <v>0.122334455667789</v>
@@ -36991,7 +36943,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K853">
         <v>0.1219512195121951</v>
@@ -37017,7 +36969,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K854">
         <v>0.1212121212121212</v>
@@ -37121,7 +37073,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K858">
         <v>0.1192488262910798</v>
@@ -37511,7 +37463,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K873">
         <v>0.1153846153846154</v>
@@ -37537,7 +37489,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K874">
         <v>0.1153846153846154</v>
@@ -37563,7 +37515,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K875">
         <v>0.1153846153846154</v>
@@ -37589,7 +37541,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K876">
         <v>0.1153846153846154</v>
@@ -37693,7 +37645,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K880">
         <v>0.1136583790765257</v>
@@ -37719,7 +37671,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K881">
         <v>0.1136363636363636</v>
@@ -37771,7 +37723,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K883">
         <v>0.1131782945736434</v>
@@ -38083,7 +38035,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K895">
         <v>0.1111111111111111</v>
@@ -38291,7 +38243,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K903">
         <v>0.1111111111111111</v>
@@ -39279,7 +39231,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K941">
         <v>0.109375</v>
@@ -39435,7 +39387,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K947">
         <v>0.1066666666666667</v>
@@ -39513,7 +39465,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K950">
         <v>0.1052631578947368</v>
@@ -39539,7 +39491,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K951">
         <v>0.1052631578947368</v>
@@ -39877,7 +39829,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K964">
         <v>0.1041666666666667</v>
@@ -40007,7 +39959,7 @@
     </row>
     <row r="969" spans="10:17">
       <c r="J969" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K969">
         <v>0.1022727272727273</v>
@@ -40085,7 +40037,7 @@
     </row>
     <row r="972" spans="10:17">
       <c r="J972" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K972">
         <v>0.1013363028953229</v>
@@ -40111,7 +40063,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K973">
         <v>0.1012658227848101</v>
@@ -40163,7 +40115,7 @@
     </row>
     <row r="975" spans="10:17">
       <c r="J975" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K975">
         <v>0.1010309278350515</v>
@@ -40215,7 +40167,7 @@
     </row>
     <row r="977" spans="10:17">
       <c r="J977" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K977">
         <v>0.1</v>
@@ -40501,7 +40453,7 @@
     </row>
     <row r="988" spans="10:17">
       <c r="J988" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K988">
         <v>0.1</v>
@@ -40579,7 +40531,7 @@
     </row>
     <row r="991" spans="10:17">
       <c r="J991" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K991">
         <v>0.1</v>
@@ -40761,7 +40713,7 @@
     </row>
     <row r="998" spans="10:17">
       <c r="J998" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K998">
         <v>0.1</v>
@@ -41203,7 +41155,7 @@
     </row>
     <row r="1015" spans="10:17">
       <c r="J1015" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K1015">
         <v>0.0989399293286219</v>
@@ -41229,7 +41181,7 @@
     </row>
     <row r="1016" spans="10:17">
       <c r="J1016" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K1016">
         <v>0.09876543209876543</v>
@@ -41255,7 +41207,7 @@
     </row>
     <row r="1017" spans="10:17">
       <c r="J1017" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K1017">
         <v>0.09836065573770492</v>
@@ -41489,7 +41441,7 @@
     </row>
     <row r="1026" spans="10:17">
       <c r="J1026" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1026">
         <v>0.09523809523809523</v>
@@ -41645,7 +41597,7 @@
     </row>
     <row r="1032" spans="10:17">
       <c r="J1032" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K1032">
         <v>0.0951276102088167</v>
@@ -41749,7 +41701,7 @@
     </row>
     <row r="1036" spans="10:17">
       <c r="J1036" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K1036">
         <v>0.09183673469387756</v>
@@ -42399,7 +42351,7 @@
     </row>
     <row r="1061" spans="10:17">
       <c r="J1061" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1061">
         <v>0.09090909090909091</v>
@@ -43023,7 +42975,7 @@
     </row>
     <row r="1085" spans="10:17">
       <c r="J1085" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1085">
         <v>0.08571428571428572</v>
@@ -43075,7 +43027,7 @@
     </row>
     <row r="1087" spans="10:17">
       <c r="J1087" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K1087">
         <v>0.0851063829787234</v>
@@ -43595,7 +43547,7 @@
     </row>
     <row r="1107" spans="10:17">
       <c r="J1107" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K1107">
         <v>0.08333333333333333</v>
@@ -43829,7 +43781,7 @@
     </row>
     <row r="1116" spans="10:17">
       <c r="J1116" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K1116">
         <v>0.08333333333333333</v>
@@ -43985,7 +43937,7 @@
     </row>
     <row r="1122" spans="10:17">
       <c r="J1122" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K1122">
         <v>0.08163265306122448</v>
@@ -44141,7 +44093,7 @@
     </row>
     <row r="1128" spans="10:17">
       <c r="J1128" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K1128">
         <v>0.08</v>
@@ -44765,7 +44717,7 @@
     </row>
     <row r="1152" spans="10:17">
       <c r="J1152" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K1152">
         <v>0.07692307692307693</v>
@@ -44947,7 +44899,7 @@
     </row>
     <row r="1159" spans="10:17">
       <c r="J1159" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K1159">
         <v>0.07407407407407407</v>
@@ -44999,7 +44951,7 @@
     </row>
     <row r="1161" spans="10:17">
       <c r="J1161" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K1161">
         <v>0.07407407407407407</v>
@@ -45077,7 +45029,7 @@
     </row>
     <row r="1164" spans="10:17">
       <c r="J1164" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K1164">
         <v>0.07407407407407407</v>
@@ -45103,7 +45055,7 @@
     </row>
     <row r="1165" spans="10:17">
       <c r="J1165" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K1165">
         <v>0.07352941176470588</v>
@@ -45155,7 +45107,7 @@
     </row>
     <row r="1167" spans="10:17">
       <c r="J1167" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K1167">
         <v>0.07291666666666667</v>
@@ -45233,7 +45185,7 @@
     </row>
     <row r="1170" spans="10:17">
       <c r="J1170" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K1170">
         <v>0.07253886010362694</v>
@@ -45285,7 +45237,7 @@
     </row>
     <row r="1172" spans="10:17">
       <c r="J1172" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K1172">
         <v>0.07207207207207207</v>
@@ -45701,7 +45653,7 @@
     </row>
     <row r="1188" spans="10:17">
       <c r="J1188" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K1188">
         <v>0.07086614173228346</v>
@@ -45831,7 +45783,7 @@
     </row>
     <row r="1193" spans="10:17">
       <c r="J1193" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K1193">
         <v>0.06832298136645963</v>
@@ -45909,7 +45861,7 @@
     </row>
     <row r="1196" spans="10:17">
       <c r="J1196" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K1196">
         <v>0.06666666666666667</v>
@@ -45935,7 +45887,7 @@
     </row>
     <row r="1197" spans="10:17">
       <c r="J1197" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K1197">
         <v>0.06666666666666667</v>
@@ -46143,7 +46095,7 @@
     </row>
     <row r="1205" spans="10:17">
       <c r="J1205" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K1205">
         <v>0.06666666666666667</v>
@@ -46247,7 +46199,7 @@
     </row>
     <row r="1209" spans="10:17">
       <c r="J1209" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K1209">
         <v>0.06581009088060169</v>
@@ -46273,7 +46225,7 @@
     </row>
     <row r="1210" spans="10:17">
       <c r="J1210" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K1210">
         <v>0.06521739130434782</v>
@@ -46351,7 +46303,7 @@
     </row>
     <row r="1213" spans="10:17">
       <c r="J1213" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K1213">
         <v>0.06451612903225806</v>
@@ -46793,7 +46745,7 @@
     </row>
     <row r="1230" spans="10:17">
       <c r="J1230" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K1230">
         <v>0.0625</v>
@@ -47001,7 +46953,7 @@
     </row>
     <row r="1238" spans="10:17">
       <c r="J1238" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K1238">
         <v>0.06153846153846154</v>
@@ -47183,7 +47135,7 @@
     </row>
     <row r="1245" spans="10:17">
       <c r="J1245" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K1245">
         <v>0.05882352941176471</v>
@@ -47443,7 +47395,7 @@
     </row>
     <row r="1255" spans="10:17">
       <c r="J1255" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K1255">
         <v>0.05882352941176471</v>
@@ -47469,7 +47421,7 @@
     </row>
     <row r="1256" spans="10:17">
       <c r="J1256" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K1256">
         <v>0.05714285714285714</v>
@@ -47963,7 +47915,7 @@
     </row>
     <row r="1275" spans="10:17">
       <c r="J1275" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K1275">
         <v>0.05263157894736842</v>
@@ -48249,7 +48201,7 @@
     </row>
     <row r="1286" spans="10:17">
       <c r="J1286" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K1286">
         <v>0.05128205128205128</v>
@@ -48587,7 +48539,7 @@
     </row>
     <row r="1299" spans="10:17">
       <c r="J1299" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K1299">
         <v>0.04938271604938271</v>
@@ -48925,7 +48877,7 @@
     </row>
     <row r="1312" spans="10:17">
       <c r="J1312" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1312">
         <v>0.04545454545454546</v>
@@ -49107,7 +49059,7 @@
     </row>
     <row r="1319" spans="10:17">
       <c r="J1319" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K1319">
         <v>0.04347826086956522</v>
@@ -49185,7 +49137,7 @@
     </row>
     <row r="1322" spans="10:17">
       <c r="J1322" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K1322">
         <v>0.04262295081967213</v>
@@ -49263,7 +49215,7 @@
     </row>
     <row r="1325" spans="10:17">
       <c r="J1325" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K1325">
         <v>0.04166666666666666</v>
@@ -49341,7 +49293,7 @@
     </row>
     <row r="1328" spans="10:17">
       <c r="J1328" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K1328">
         <v>0.0410958904109589</v>
@@ -49939,7 +49891,7 @@
     </row>
     <row r="1351" spans="10:17">
       <c r="J1351" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K1351">
         <v>0.03676470588235294</v>
@@ -50095,7 +50047,7 @@
     </row>
     <row r="1357" spans="10:17">
       <c r="J1357" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K1357">
         <v>0.03571428571428571</v>
@@ -50329,7 +50281,7 @@
     </row>
     <row r="1366" spans="10:17">
       <c r="J1366" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K1366">
         <v>0.03125</v>
@@ -50355,7 +50307,7 @@
     </row>
     <row r="1367" spans="10:17">
       <c r="J1367" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K1367">
         <v>0.03064066852367688</v>
@@ -50589,7 +50541,7 @@
     </row>
     <row r="1376" spans="10:17">
       <c r="J1376" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K1376">
         <v>0.02857142857142857</v>
@@ -50615,7 +50567,7 @@
     </row>
     <row r="1377" spans="10:17">
       <c r="J1377" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K1377">
         <v>0.02806652806652807</v>
@@ -50953,7 +50905,7 @@
     </row>
     <row r="1390" spans="10:17">
       <c r="J1390" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K1390">
         <v>0.02469135802469136</v>
@@ -50979,7 +50931,7 @@
     </row>
     <row r="1391" spans="10:17">
       <c r="J1391" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K1391">
         <v>0.02439024390243903</v>
@@ -51005,7 +50957,7 @@
     </row>
     <row r="1392" spans="10:17">
       <c r="J1392" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K1392">
         <v>0.02419354838709677</v>
@@ -51083,7 +51035,7 @@
     </row>
     <row r="1395" spans="10:17">
       <c r="J1395" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K1395">
         <v>0.02366863905325444</v>
@@ -51343,7 +51295,7 @@
     </row>
     <row r="1405" spans="10:17">
       <c r="J1405" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K1405">
         <v>0.02083333333333333</v>
@@ -51447,7 +51399,7 @@
     </row>
     <row r="1409" spans="10:17">
       <c r="J1409" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K1409">
         <v>0.01904761904761905</v>
@@ -51733,7 +51685,7 @@
     </row>
     <row r="1420" spans="10:17">
       <c r="J1420" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K1420">
         <v>0.01063829787234043</v>
@@ -51785,7 +51737,7 @@
     </row>
     <row r="1422" spans="10:17">
       <c r="J1422" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K1422">
         <v>0.008510638297872341</v>
@@ -51889,7 +51841,7 @@
     </row>
     <row r="1426" spans="10:17">
       <c r="J1426" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K1426">
         <v>0.005263157894736842</v>
